--- a/database/sidis/expdata/2528.xlsx
+++ b/database/sidis/expdata/2528.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\Summer Research\sidisdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{954B25AB-C777-44ED-8A37-5BA3C15242F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C736475-ED9D-024D-8650-D0A8027D0666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="13170" windowHeight="11520" xr2:uid="{360FA873-2BAD-47AB-A2D9-38C573C85EA5}"/>
+    <workbookView xWindow="740" yWindow="740" windowWidth="13180" windowHeight="11520" xr2:uid="{360FA873-2BAD-47AB-A2D9-38C573C85EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="24">
   <si>
     <t>Q2</t>
   </si>
@@ -103,6 +94,9 @@
   </si>
   <si>
     <t>pi-</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
@@ -179,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -189,6 +183,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732C1C24-70B3-40F2-A721-BB5F6A4C123B}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +566,11 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1.46</v>
       </c>
@@ -628,8 +628,11 @@
       <c r="S2">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1.51</v>
       </c>
@@ -687,8 +690,11 @@
       <c r="S3">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1.53</v>
       </c>
@@ -746,8 +752,11 @@
       <c r="S4">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1.58</v>
       </c>
@@ -805,8 +814,11 @@
       <c r="S5">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1.43</v>
       </c>
@@ -864,8 +876,11 @@
       <c r="S6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1.48</v>
       </c>
@@ -923,8 +938,11 @@
       <c r="S7">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1.5</v>
       </c>
@@ -982,8 +1000,11 @@
       <c r="S8">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1.55</v>
       </c>
@@ -1041,8 +1062,11 @@
       <c r="S9">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1.4</v>
       </c>
@@ -1100,8 +1124,11 @@
       <c r="S10">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1.45</v>
       </c>
@@ -1159,8 +1186,11 @@
       <c r="S11">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1.49</v>
       </c>
@@ -1218,8 +1248,11 @@
       <c r="S12">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1.53</v>
       </c>
@@ -1277,8 +1310,11 @@
       <c r="S13">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1.37</v>
       </c>
@@ -1336,8 +1372,11 @@
       <c r="S14">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1.41</v>
       </c>
@@ -1395,8 +1434,11 @@
       <c r="S15">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1.44</v>
       </c>
@@ -1454,8 +1496,11 @@
       <c r="S16">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1.51</v>
       </c>
@@ -1513,8 +1558,11 @@
       <c r="S17">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2.1</v>
       </c>
@@ -1572,8 +1620,11 @@
       <c r="S18">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2.37</v>
       </c>
@@ -1631,8 +1682,11 @@
       <c r="S19">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2.46</v>
       </c>
@@ -1690,8 +1744,11 @@
       <c r="S20">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2.72</v>
       </c>
@@ -1749,8 +1806,11 @@
       <c r="S21">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1.88</v>
       </c>
@@ -1808,8 +1868,11 @@
       <c r="S22">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2.13</v>
       </c>
@@ -1867,8 +1930,11 @@
       <c r="S23">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2.2599999999999998</v>
       </c>
@@ -1926,8 +1992,11 @@
       <c r="S24">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2.48</v>
       </c>
@@ -1985,8 +2054,11 @@
       <c r="S25">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1.82</v>
       </c>
@@ -2044,8 +2116,11 @@
       <c r="S26">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1.95</v>
       </c>
@@ -2103,8 +2178,11 @@
       <c r="S27">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>2.17</v>
       </c>
@@ -2162,8 +2240,11 @@
       <c r="S28">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2.37</v>
       </c>
@@ -2221,8 +2302,11 @@
       <c r="S29">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1.78</v>
       </c>
@@ -2280,8 +2364,11 @@
       <c r="S30">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1.85</v>
       </c>
@@ -2339,8 +2426,11 @@
       <c r="S31">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -2398,8 +2488,11 @@
       <c r="S32">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2.2599999999999998</v>
       </c>
@@ -2457,8 +2550,11 @@
       <c r="S33">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>2.86</v>
       </c>
@@ -2516,8 +2612,11 @@
       <c r="S34">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>3.17</v>
       </c>
@@ -2575,8 +2674,11 @@
       <c r="S35">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>3.25</v>
       </c>
@@ -2634,8 +2736,11 @@
       <c r="S36">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>3.54</v>
       </c>
@@ -2693,8 +2798,11 @@
       <c r="S37">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2.52</v>
       </c>
@@ -2752,8 +2860,11 @@
       <c r="S38">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2.77</v>
       </c>
@@ -2811,8 +2922,11 @@
       <c r="S39">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2.98</v>
       </c>
@@ -2870,8 +2984,11 @@
       <c r="S40">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>3.17</v>
       </c>
@@ -2929,8 +3046,11 @@
       <c r="S41">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2.39</v>
       </c>
@@ -2988,8 +3108,11 @@
       <c r="S42">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2.48</v>
       </c>
@@ -3047,8 +3170,11 @@
       <c r="S43">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>2.8</v>
       </c>
@@ -3106,8 +3232,11 @@
       <c r="S44">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>3</v>
       </c>
@@ -3165,8 +3294,11 @@
       <c r="S45">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>2.37</v>
       </c>
@@ -3224,8 +3356,11 @@
       <c r="S46">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2.39</v>
       </c>
@@ -3283,8 +3418,11 @@
       <c r="S47">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>2.5499999999999998</v>
       </c>
@@ -3342,8 +3480,11 @@
       <c r="S48">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>2.92</v>
       </c>
@@ -3401,8 +3542,11 @@
       <c r="S49">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>4.91</v>
       </c>
@@ -3460,8 +3604,11 @@
       <c r="S50">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>5.22</v>
       </c>
@@ -3519,8 +3666,11 @@
       <c r="S51">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>5.18</v>
       </c>
@@ -3578,8 +3728,11 @@
       <c r="S52">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>5.4</v>
       </c>
@@ -3637,8 +3790,11 @@
       <c r="S53">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>4.41</v>
       </c>
@@ -3696,8 +3852,11 @@
       <c r="S54">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>4.55</v>
       </c>
@@ -3755,8 +3914,11 @@
       <c r="S55">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>4.8</v>
       </c>
@@ -3814,8 +3976,11 @@
       <c r="S56">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>4.79</v>
       </c>
@@ -3873,8 +4038,11 @@
       <c r="S57">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>4.26</v>
       </c>
@@ -3932,8 +4100,11 @@
       <c r="S58">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>4.3099999999999996</v>
       </c>
@@ -3991,8 +4162,11 @@
       <c r="S59">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>4.59</v>
       </c>
@@ -4050,8 +4224,11 @@
       <c r="S60">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>4.78</v>
       </c>
@@ -4109,8 +4286,11 @@
       <c r="S61">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>4.25</v>
       </c>
@@ -4168,8 +4348,11 @@
       <c r="S62">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>4.13</v>
       </c>
@@ -4227,8 +4410,11 @@
       <c r="S63">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>4.25</v>
       </c>
@@ -4286,8 +4472,11 @@
       <c r="S64">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>4.67</v>
       </c>
@@ -4344,6 +4533,9 @@
       </c>
       <c r="S65">
         <v>0.6</v>
+      </c>
+      <c r="T65" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
